--- a/Final_Compiled_Chick_Data.xlsx
+++ b/Final_Compiled_Chick_Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0212E495-C765-7E4B-8D2B-9DC79A614193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6ED17D-B584-5543-8EBD-784C5D8B41A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13380" xr2:uid="{D03FAAA5-6E6B-ED4B-9FA6-8BF75DCD241B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
